--- a/test/functional/xlsx_files/chart_scatter05.xlsx
+++ b/test/functional/xlsx_files/chart_scatter05.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -175,23 +175,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="54011776"/>
-        <c:axId val="54010240"/>
+        <c:axId val="50010003"/>
+        <c:axId val="50010004"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54011776"/>
+        <c:axId val="50010003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54010240"/>
+        <c:crossAx val="50010004"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54010240"/>
+        <c:axId val="50010004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -199,7 +199,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54011776"/>
+        <c:crossAx val="50010003"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>

--- a/test/functional/xlsx_files/chart_scatter05.xlsx
+++ b/test/functional/xlsx_files/chart_scatter05.xlsx
@@ -175,23 +175,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="50010003"/>
-        <c:axId val="50010004"/>
+        <c:axId val="54011776"/>
+        <c:axId val="54010240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50010003"/>
+        <c:axId val="54011776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010004"/>
+        <c:crossAx val="54010240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50010004"/>
+        <c:axId val="54010240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -199,7 +199,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010003"/>
+        <c:crossAx val="54011776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
